--- a/DSA/problems_list.xlsx
+++ b/DSA/problems_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saakethm/Documents/Career/Interview_Prep/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86046FA6-3854-A74E-A736-6E3FED9B2E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5617B0-6492-E54B-B444-3CE98CFBD365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Problem Name</t>
   </si>
@@ -697,6 +697,29 @@
   </si>
   <si>
     <t>Array, Hash Table, String</t>
+  </si>
+  <si>
+    <t>use one stack to collect elements, for any pop/peek operation, move everything to second stack to get/remove top element, then move everything back.
+Then for any push operation, push to first stack
+Empty is easy (call on first stack)</t>
+  </si>
+  <si>
+    <t>push: make sure everything from s2 is in s1, then push to s1
+pop: move everything to s2. now top of stack is first in queue
+peek: same as pop!
+Empty: both are empty</t>
+  </si>
+  <si>
+    <t>push: O(N)
+pop: O(N)
+peek: O(N)
+Empty: O(1)</t>
+  </si>
+  <si>
+    <t>push: O(1)
+pop: O(1)
+peek: O(1)
+Empty: O(1)</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CD7D1-B787-ED4B-AC81-FB0452E28C73}">
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1165,6 +1188,18 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>6</v>

--- a/DSA/problems_list.xlsx
+++ b/DSA/problems_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saakethm/Documents/Career/Interview_Prep/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5617B0-6492-E54B-B444-3CE98CFBD365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5A477-AECC-1943-A1DA-5EBBBE7B81BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Problem Name</t>
   </si>
@@ -716,17 +716,39 @@
 Empty: O(1)</t>
   </si>
   <si>
+    <t>use one queue to store all elements of stack, other for temp like hanoi
+for pop/top operations,  pop all elements off q1 until one remaining, then remove/return this
+empty can simply be called on both queues</t>
+  </si>
+  <si>
+    <t>push: bears the brunt of the operation. Push to q1 (initial elem), then pop everything from q2 to q1
+(optional)  then move everything from q1 back to q2 to keep consistent place. 
+Pop: pop from q2
+top: peek at q2
+empty: check if q2 empty</t>
+  </si>
+  <si>
+    <t>push: O(N)
+pop: O(1)
+peek: O(1)
+Empty: O(1)</t>
+  </si>
+  <si>
     <t>push: O(1)
 pop: O(1)
 peek: O(1)
-Empty: O(1)</t>
+Empty: O(1)
+overall: O(N)</t>
+  </si>
+  <si>
+    <t>start solving new problems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -771,6 +793,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -793,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -803,6 +830,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1138,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CD7D1-B787-ED4B-AC81-FB0452E28C73}">
-  <dimension ref="B1:I23"/>
+  <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,13 +1227,13 @@
         <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" s="3" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1214,6 +1242,18 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>11</v>
@@ -1383,13 +1423,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{EA237424-6E1D-D646-AB7D-DAD21E359FAE}"/>

--- a/DSA/problems_list.xlsx
+++ b/DSA/problems_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saakethm/Documents/Career/Interview_Prep/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5A477-AECC-1943-A1DA-5EBBBE7B81BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34D999-35E2-A947-81AD-FFE66C3826C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Problem Name</t>
   </si>
@@ -742,6 +742,21 @@
   </si>
   <si>
     <t>start solving new problems</t>
+  </si>
+  <si>
+    <t>Note we DON'T have access to prev. hence we need to move the next node to the current node, and then similarly shift every other node back as well.</t>
+  </si>
+  <si>
+    <t>O(1), only temp needed</t>
+  </si>
+  <si>
+    <t>O(N), potentially need to go through entire linked list</t>
+  </si>
+  <si>
+    <t>While we haven't reached the end (node.next is not none), repeat:
+store curr val as next val
+only val really matters (just a placeholder node anyways), so iterate to next node (node = node.next)
+UNLESS at end (node.next is last one), then make node.next = None</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CD7D1-B787-ED4B-AC81-FB0452E28C73}">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" ht="53" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" s="3" customFormat="1" ht="188" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,6 +1283,18 @@
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>17</v>

--- a/DSA/problems_list.xlsx
+++ b/DSA/problems_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saakethm/Documents/Career/Interview_Prep/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34D999-35E2-A947-81AD-FFE66C3826C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E335D-E46C-734E-A133-772345B6B7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Problem Name</t>
   </si>
@@ -758,12 +758,154 @@
 only val really matters (just a placeholder node anyways), so iterate to next node (node = node.next)
 UNLESS at end (node.next is last one), then make node.next = None</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>time-efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+keep a dictionary of the counts of each element
+at each update step, store a max variable that compares the existing max to the updated count.
+Return this max (alternatively return the first element exceeding half array size in count)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>space efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+sort array and return the middle element</t>
+    </r>
+  </si>
+  <si>
+    <t>see previous</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>time-efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+O(N)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>space efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+O(N)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>time-efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+O(N log N)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>space efficient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+O(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>How to differentiate whether linked list simply is continuing or if it is a cycle? Can't just look at the value. 
+Use a set to store each node, if referenced again then we're in a cycle.</t>
+  </si>
+  <si>
+    <t>Floyd's Algorithm:
+Set two pointers. One moves incrementally by 1, the other moves twice as fast. Then if they ever meet at the same node, that guarantees there is a cycle (we can also calculate cycle length, but not necessary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(N) </t>
+  </si>
+  <si>
+    <t>O(1), only two pointers!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -811,6 +953,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
@@ -1183,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CD7D1-B787-ED4B-AC81-FB0452E28C73}">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,7 +1453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="3" customFormat="1" ht="53" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" s="3" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1310,11 +1463,23 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="3" customFormat="1" ht="188" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,6 +1488,18 @@
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>24</v>

--- a/DSA/problems_list.xlsx
+++ b/DSA/problems_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saakethm/Documents/Career/Interview_Prep/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E335D-E46C-734E-A133-772345B6B7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52DAF19-5DF1-034B-B75D-E94843796474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
   </bookViews>
@@ -891,14 +891,14 @@
 Use a set to store each node, if referenced again then we're in a cycle.</t>
   </si>
   <si>
+    <t xml:space="preserve">O(N) </t>
+  </si>
+  <si>
+    <t>O(1), only two pointers!</t>
+  </si>
+  <si>
     <t>Floyd's Algorithm:
-Set two pointers. One moves incrementally by 1, the other moves twice as fast. Then if they ever meet at the same node, that guarantees there is a cycle (we can also calculate cycle length, but not necessary)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O(N) </t>
-  </si>
-  <si>
-    <t>O(1), only two pointers!</t>
+Set two pointers. One moves incrementally by 1, the other moves twice as fast. Then if they ever meet at the same node, that guarantees there is a cycle (we can also calculate cycle length by setting slow pointer to start and incrementing by 1 until they meet at cycle start which we can use to calculate length, but not necessary)</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CD7D1-B787-ED4B-AC81-FB0452E28C73}">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1479,7 +1479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="188" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" s="3" customFormat="1" ht="205" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1493,13 +1493,13 @@
         <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>24</v>

--- a/DSA/problems_list.xlsx
+++ b/DSA/problems_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saakethm/Documents/Career/Interview_Prep/DSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52DAF19-5DF1-034B-B75D-E94843796474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F7DF83-60C2-6D46-B6D7-6FFCAB534E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4A3A3B0D-655C-AA46-B365-17CF081AA694}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>Problem Name</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Space Complexity</t>
-  </si>
-  <si>
-    <t>Initial Thoughts</t>
   </si>
   <si>
     <t>stacks_with_queues.cpp</t>
@@ -900,12 +897,108 @@
     <t>Floyd's Algorithm:
 Set two pointers. One moves incrementally by 1, the other moves twice as fast. Then if they ever meet at the same node, that guarantees there is a cycle (we can also calculate cycle length by setting slow pointer to start and incrementing by 1 until they meet at cycle start which we can use to calculate length, but not necessary)</t>
   </si>
+  <si>
+    <t>Use a list to store array, then use integer index as pointer, which can be used for describing next, hasNext, peek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Thoughts (Naïve) &amp; Keywords </t>
+  </si>
+  <si>
+    <t>Lower &amp; Upper Time Bounds</t>
+  </si>
+  <si>
+    <r>
+      <t>Guidelines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Fill out initial thoughts with naïve solution &amp; keywords, then upper bound/lower bound guess -&gt; then solve problem </t>
+    </r>
+  </si>
+  <si>
+    <t>Keywords &amp; Thoughts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Bounds: O(1)
+Upper Bounds: O(N) for traversing through entire array
+</t>
+  </si>
+  <si>
+    <t>Use iterator class to implement methods. Store copy of next element as instance variable.
+For peek, return copy.
+For next, store copy of next element, then advance iterator
+For hasNext, call hasNext.</t>
+  </si>
+  <si>
+    <t>init: O(1)
+peek: O(1)
+next: O(1)
+hasNext: O(1)</t>
+  </si>
+  <si>
+    <t>Recursion (trivial in Python though)</t>
+  </si>
+  <si>
+    <t>Trivial in Python</t>
+  </si>
+  <si>
+    <t>L: O(1), U: O(N) using recursion</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>x ** n</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sorted order row-wise and column-wise and need to find an element -&gt; definitely </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binary search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thinking of doing binary search across the rows first to pick the right row. Then do binary search across columns of selected row to find element.</t>
+  </si>
+  <si>
+    <t>L: O(log (m) + log (n)), U: O(m*n)</t>
+  </si>
+  <si>
+    <t>Define lower and upper row. Then do usual binary search: while lower &lt; upper, calculate mid -&gt; if target is less than mid, update upper, lese update lower to mid. Break if no changes.
+Now with the row, do the same to find the right element in the row. If it repeats, then break and return False, else return True for match.</t>
+  </si>
+  <si>
+    <t>O(log(m) + log(n)) = O(log(m*n))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -966,6 +1059,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -988,7 +1094,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -999,6 +1105,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1334,328 +1441,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CD7D1-B787-ED4B-AC81-FB0452E28C73}">
-  <dimension ref="B1:I32"/>
+  <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="8" width="28.5" customWidth="1"/>
-    <col min="9" max="9" width="39" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="7" width="33" customWidth="1"/>
+    <col min="8" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="11" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="3" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="3" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="272" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="5" spans="2:11" s="3" customFormat="1" ht="188" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="3" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="3" customFormat="1" ht="205" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="3" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="9" spans="2:11" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="3" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="3" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" s="3" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" ht="188" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="3" customFormat="1" ht="340" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="205" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" ht="221" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" s="3" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="3" customFormat="1" ht="35" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{EA237424-6E1D-D646-AB7D-DAD21E359FAE}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{6BD5C34B-9A56-D04E-990E-76C7813C284F}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/delete-node-in-a-linked-list/" xr:uid="{E555EC1F-B86B-F949-9963-F7E0F273DE59}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/majority-element/" xr:uid="{B263E729-7C30-9B42-BB82-F20342E71D3C}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{888608BA-0258-584F-B9EB-69C3B96A29F8}"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://leetcode.com/problems/peeking-iterator/" xr:uid="{9CCC1A78-927C-D842-A0A5-CB3B59458BC4}"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://leetcode.com/problems/powx-n/" xr:uid="{B74A41E1-833A-CC47-98D6-6016FF1456E1}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://leetcode.com/problems/search-a-2d-matrix/" xr:uid="{29D8757D-A728-CB40-B89C-265559B2BA25}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://leetcode.com/problems/first-missing-positive/" xr:uid="{BAD8D3A5-125D-3543-B622-B067DCDBD5B8}"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://leetcode.com/problems/binary-tree-inorder-traversal/" xr:uid="{D3AFEBDE-8A9A-1A4F-AE7C-3BF0AD8C82F3}"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{22C9DFEE-9293-AF47-A65B-B529CBE1B728}"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{B925881A-ED90-7E46-9E07-85E1B8EFABE3}"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://leetcode.com/problems/can-make-arithmetic-progression-from-sequence/" xr:uid="{A25D6BD6-5F84-BE47-9ADE-1815AF3F6DE3}"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://leetcode.com/problems/missing-number/" xr:uid="{121F54D0-9157-1F45-9F08-907273DC216E}"/>
-    <hyperlink ref="B16" r:id="rId15" display="https://leetcode.com/problems/count-common-words-with-one-occurrence/" xr:uid="{13D8E3E6-5458-C148-B10B-02FAA10859D9}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{EA237424-6E1D-D646-AB7D-DAD21E359FAE}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{6BD5C34B-9A56-D04E-990E-76C7813C284F}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode.com/problems/delete-node-in-a-linked-list/" xr:uid="{E555EC1F-B86B-F949-9963-F7E0F273DE59}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://leetcode.com/problems/majority-element/" xr:uid="{B263E729-7C30-9B42-BB82-F20342E71D3C}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{888608BA-0258-584F-B9EB-69C3B96A29F8}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/peeking-iterator/" xr:uid="{9CCC1A78-927C-D842-A0A5-CB3B59458BC4}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.com/problems/powx-n/" xr:uid="{B74A41E1-833A-CC47-98D6-6016FF1456E1}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/search-a-2d-matrix/" xr:uid="{29D8757D-A728-CB40-B89C-265559B2BA25}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/first-missing-positive/" xr:uid="{BAD8D3A5-125D-3543-B622-B067DCDBD5B8}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode.com/problems/binary-tree-inorder-traversal/" xr:uid="{D3AFEBDE-8A9A-1A4F-AE7C-3BF0AD8C82F3}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{22C9DFEE-9293-AF47-A65B-B529CBE1B728}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{B925881A-ED90-7E46-9E07-85E1B8EFABE3}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode.com/problems/can-make-arithmetic-progression-from-sequence/" xr:uid="{A25D6BD6-5F84-BE47-9ADE-1815AF3F6DE3}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://leetcode.com/problems/missing-number/" xr:uid="{121F54D0-9157-1F45-9F08-907273DC216E}"/>
+    <hyperlink ref="B17" r:id="rId15" display="https://leetcode.com/problems/count-common-words-with-one-occurrence/" xr:uid="{13D8E3E6-5458-C148-B10B-02FAA10859D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
